--- a/DateBase/orders/Nha Thu_2025-9-25.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-25.xlsx
@@ -870,6 +870,9 @@
       <c r="G2" t="str">
         <v>010101015510102017.515101051010510201515510102010101010101063010555610105203025</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
